--- a/Clustering/ListadoPromedios.xlsx
+++ b/Clustering/ListadoPromedios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\Analisis Proyecto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Clustering-ReglasAsociacion\Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9C112-C23C-426C-A023-384B6F9CC040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C205FA-1527-41BF-85E3-BDCF138AA47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26B50042-7D8B-4658-AA63-272B7894688F}"/>
+    <workbookView xWindow="945" yWindow="1995" windowWidth="27210" windowHeight="11385" xr2:uid="{26B50042-7D8B-4658-AA63-272B7894688F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,12 +501,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
